--- a/medicine/Enfance/Walter_Farley/Walter_Farley.xlsx
+++ b/medicine/Enfance/Walter_Farley/Walter_Farley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Farley (né le 26 juin 1915 à Syracuse (New York), et mort le 16 octobre 1989 à Sarasota, Floride, États-Unis) est un écrivain américain de romans pour la jeunesse principalement connu pour la série équestre L'Étalon noir (The Black Stallion).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Farley naquit le 26 juin 1915 à New York. Il vécut d'abord à Syracuse avant d'aller à New York. C'était un enfant passionné par les chevaux sans qu'il n'en possède. Il partageait son amour de l'équitation avec son oncle qui était un cavalier professionnel.
 Il commença ses études secondaires au lycée Erasmus Hall de Brooklyn où il commença l'écriture de son premier livre : L’Étalon noir (The Black Stallion en anglais) qui paraîtra en 1941. Il fréquenta ensuite l'Académie de Mercersburg en Pennsylvanie et finit par obtenir une licence à l'université de Colombia.
